--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Academic\Case Studies in Data Analysis (STAT 634)\Cherry Blossom Project\Case-Study-1\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ACB747-4FE0-4D80-8571-8263D9CEDFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F294415E-3197-45B9-9FC6-9818F939ED52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="3" xr2:uid="{D6870D75-B5D0-49A7-A78A-42D098C26C65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="752" activeTab="6" xr2:uid="{D6870D75-B5D0-49A7-A78A-42D098C26C65}"/>
   </bookViews>
   <sheets>
-    <sheet name="forecasts, lm" sheetId="1" r:id="rId1"/>
-    <sheet name="forecasts, VAR" sheetId="5" r:id="rId2"/>
-    <sheet name="forecast, GAM" sheetId="14" r:id="rId3"/>
-    <sheet name="RMSE" sheetId="9" r:id="rId4"/>
-    <sheet name="DC" sheetId="2" r:id="rId5"/>
+    <sheet name="Table 1" sheetId="15" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="16" r:id="rId2"/>
+    <sheet name="kyoto, lm" sheetId="11" r:id="rId3"/>
+    <sheet name="DC, lm" sheetId="10" r:id="rId4"/>
+    <sheet name="liestal, lm" sheetId="12" r:id="rId5"/>
     <sheet name="Kyoto" sheetId="3" r:id="rId6"/>
-    <sheet name="Liestal" sheetId="4" r:id="rId7"/>
-    <sheet name="DC, lm" sheetId="10" r:id="rId8"/>
-    <sheet name="kyoto, lm" sheetId="11" r:id="rId9"/>
-    <sheet name="liestal, lm" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId11"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId12"/>
+    <sheet name="DC" sheetId="2" r:id="rId7"/>
+    <sheet name="Liestal" sheetId="4" r:id="rId8"/>
+    <sheet name="RMSE" sheetId="9" r:id="rId9"/>
+    <sheet name="forecasts, SARIMA" sheetId="1" r:id="rId10"/>
+    <sheet name="forecasts, LM" sheetId="17" r:id="rId11"/>
+    <sheet name="forecasts, VAR" sheetId="5" r:id="rId12"/>
+    <sheet name="forecast, GAM" sheetId="14" r:id="rId13"/>
+    <sheet name="PBD" sheetId="18" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="194">
   <si>
     <t>Washington, DC</t>
   </si>
@@ -277,9 +282,6 @@
     <t>SARIMA (6, 0, 4) (3, 0, 5) [5]</t>
   </si>
   <si>
-    <t>Forecasts for Cherry Blossom Peak Bloom (2022-2032): VAR Model</t>
-  </si>
-  <si>
     <t>AR1</t>
   </si>
   <si>
@@ -346,9 +348,6 @@
     <t>Wind Speed</t>
   </si>
   <si>
-    <t>Mean Absolute Temp Diff (*0.1)</t>
-  </si>
-  <si>
     <t>Sunlight (Jan-Mar)</t>
   </si>
   <si>
@@ -394,72 +393,6 @@
     <t>ja.pbd.ts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Coefficients for Multiple Linear Regression Model with SARIMA Adjusted Errors for Cherry Blossom Peak Bloom: Washington, DC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Coefficients for Multiple Linear Regression Model with SARIMA Adjusted Errors for Cherry Blossom Peak Bloom: Kyoto, Japan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table 4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Coefficients for Multiple Linear Regression Model with SARIMA Adjusted Errors for Cherry Blossom Peak Bloom: Liestal, Switzerland</t>
-    </r>
-  </si>
-  <si>
-    <t>Forecasts for Cherry Blossom Peak Bloom (2022-2032): Linear Regression Model with SARIMA Adjusted Errors</t>
-  </si>
-  <si>
     <t>egression</t>
   </si>
   <si>
@@ -518,9 +451,6 @@
   </si>
   <si>
     <t>Cum. precipitation</t>
-  </si>
-  <si>
-    <t>Abs Temperature Diff</t>
   </si>
   <si>
     <t>Chill days</t>
@@ -559,10 +489,67 @@
     <t>Total hrs sunlight</t>
   </si>
   <si>
-    <t>Abs temperature diff</t>
-  </si>
-  <si>
     <t>s.e</t>
+  </si>
+  <si>
+    <t>GAM Model</t>
+  </si>
+  <si>
+    <t>Location </t>
+  </si>
+  <si>
+    <t>Latitude (°) </t>
+  </si>
+  <si>
+    <t>Longitude (°) </t>
+  </si>
+  <si>
+    <t>Altitude (m) </t>
+  </si>
+  <si>
+    <t>Cherry Blossom Cultivar </t>
+  </si>
+  <si>
+    <t>Kyoto </t>
+  </si>
+  <si>
+    <t>35.0120 </t>
+  </si>
+  <si>
+    <t>135.6761 </t>
+  </si>
+  <si>
+    <t>44 </t>
+  </si>
+  <si>
+    <t>47.4814 </t>
+  </si>
+  <si>
+    <t>7.730519 </t>
+  </si>
+  <si>
+    <t>350 </t>
+  </si>
+  <si>
+    <t>Washington, D.C. </t>
+  </si>
+  <si>
+    <t>38.8853 </t>
+  </si>
+  <si>
+    <t>-77.0386 </t>
+  </si>
+  <si>
+    <t>0 </t>
+  </si>
+  <si>
+    <t>49.2237 </t>
+  </si>
+  <si>
+    <t>-123.1636 </t>
+  </si>
+  <si>
+    <t>24 </t>
   </si>
   <si>
     <r>
@@ -573,7 +560,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Table 5.</t>
+      <t>Table 1</t>
     </r>
     <r>
       <rPr>
@@ -582,8 +569,129 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Multiple Linear Regression Model: Liestal, Switzerland</t>
+      <t>. Locations and Species of Cherry Trees of Interest.  </t>
     </r>
+  </si>
+  <si>
+    <t>Liestal-Weideli, Switzerland</t>
+  </si>
+  <si>
+    <t>Washington, D.C., USA </t>
+  </si>
+  <si>
+    <t>Vancouver, B.C., Canada</t>
+  </si>
+  <si>
+    <r>
+      <t>Prunus jamasakura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prunus avium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prunus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> × </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>yedoensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> ‘Somei-yoshino’ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prunus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> × </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>yedoensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> ‘Akebono’ </t>
+    </r>
+  </si>
+  <si>
+    <t>Cum. Temp. Diff. (*0.1)</t>
+  </si>
+  <si>
+    <t>Tc (°C) </t>
+  </si>
+  <si>
+    <t>Rc (chill days) </t>
+  </si>
+  <si>
+    <t>Rh (anti-chill days) </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>5 </t>
   </si>
   <si>
     <r>
@@ -594,7 +702,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Table 4.</t>
+      <t>Table 2</t>
     </r>
     <r>
       <rPr>
@@ -603,14 +711,56 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Multiple Linear Regression Model: Washington, DC</t>
+      <t>. Estimated Parameters for the Cherry Blossoms per the Phenology Model </t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Multiple Linear Regression Model: Washington, DC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Multiple Linear Regression Model: Liestal, Switzerland</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -619,7 +769,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -628,7 +778,175 @@
     </r>
   </si>
   <si>
-    <t>GAM Model</t>
+    <t>year</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table 7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Coefficients for Multiple Linear Regression Model with SARIMA Adjusted Errors for Cherry Blossom Peak Bloom: Kyoto, Japan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table 8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Coefficients for Multiple Linear Regression Model with SARIMA Adjusted Errors for Cherry Blossom Peak Bloom: Washington, DC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table 9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Coefficients for Multiple Linear Regression Model with SARIMA Adjusted Errors for Cherry Blossom Peak Bloom: Liestal, Switzerland</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Forecasts for Cherry Blossom Peak Bloom (2022-2032): Basic Linear Regression Model</t>
+    </r>
+  </si>
+  <si>
+    <t>kyoto_doy</t>
+  </si>
+  <si>
+    <t>liestal_doy</t>
+  </si>
+  <si>
+    <t>DC_doy</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Predicted R</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Comparison of Predictive Power with Linear Regression Model: Predictive R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Forecasts for Cherry Blossom Peak Bloom (2022-2032): Linear Regression Model with SARIMA Adjusted Errors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Forecasts for Cherry Blossom Peak Bloom (2022-2032): VAR Model</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -637,10 +955,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +1006,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -729,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -754,7 +1079,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -762,8 +1086,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,9 +1097,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,25 +1109,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -817,20 +1133,60 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,10 +1500,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A418ADE3-F1FD-4CF8-B0F9-371D2781B21D}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="25.234375" customWidth="1"/>
+    <col min="2" max="2" width="12.41015625" customWidth="1"/>
+    <col min="3" max="3" width="13.41015625" customWidth="1"/>
+    <col min="4" max="4" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="34.8203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C838F684-BA64-421B-95FF-4A99FA34C720}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -1156,30 +1634,30 @@
     <col min="5" max="5" width="17.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="17"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>113</v>
+      <c r="E2" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
@@ -1187,10 +1665,10 @@
         <v>2022</v>
       </c>
       <c r="B3" s="7">
+        <v>97.18092</v>
+      </c>
+      <c r="C3" s="7">
         <v>98.257040000000003</v>
-      </c>
-      <c r="C3" s="7">
-        <v>97.18092</v>
       </c>
       <c r="D3" s="7">
         <v>114.67079</v>
@@ -1204,10 +1682,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="7">
+        <v>99.327579999999998</v>
+      </c>
+      <c r="C4" s="7">
         <v>93.398489999999995</v>
-      </c>
-      <c r="C4" s="7">
-        <v>99.327579999999998</v>
       </c>
       <c r="D4" s="7">
         <v>116.86828</v>
@@ -1221,10 +1699,10 @@
         <v>2024</v>
       </c>
       <c r="B5" s="7">
+        <v>94.166960000000003</v>
+      </c>
+      <c r="C5" s="7">
         <v>93.406999999999996</v>
-      </c>
-      <c r="C5" s="7">
-        <v>94.166960000000003</v>
       </c>
       <c r="D5" s="7">
         <v>117.33248</v>
@@ -1238,10 +1716,10 @@
         <v>2025</v>
       </c>
       <c r="B6" s="7">
+        <v>98.812719999999999</v>
+      </c>
+      <c r="C6" s="7">
         <v>89.792829999999995</v>
-      </c>
-      <c r="C6" s="7">
-        <v>98.812719999999999</v>
       </c>
       <c r="D6" s="7">
         <v>84.541650000000004</v>
@@ -1255,10 +1733,10 @@
         <v>2026</v>
       </c>
       <c r="B7" s="7">
+        <v>100.54807</v>
+      </c>
+      <c r="C7" s="7">
         <v>89.313919999999996</v>
-      </c>
-      <c r="C7" s="7">
-        <v>100.54807</v>
       </c>
       <c r="D7" s="7">
         <v>114.43478</v>
@@ -1272,10 +1750,10 @@
         <v>2027</v>
       </c>
       <c r="B8" s="7">
+        <v>97.505970000000005</v>
+      </c>
+      <c r="C8" s="7">
         <v>107.76017</v>
-      </c>
-      <c r="C8" s="7">
-        <v>97.505970000000005</v>
       </c>
       <c r="D8" s="7">
         <v>91.402780000000007</v>
@@ -1289,10 +1767,10 @@
         <v>2028</v>
       </c>
       <c r="B9" s="7">
+        <v>90.992490000000004</v>
+      </c>
+      <c r="C9" s="7">
         <v>94.20984</v>
-      </c>
-      <c r="C9" s="7">
-        <v>90.992490000000004</v>
       </c>
       <c r="D9" s="7">
         <v>94.272869999999998</v>
@@ -1306,10 +1784,10 @@
         <v>2029</v>
       </c>
       <c r="B10" s="7">
+        <v>93.498710000000003</v>
+      </c>
+      <c r="C10" s="7">
         <v>93.9131</v>
-      </c>
-      <c r="C10" s="7">
-        <v>93.498710000000003</v>
       </c>
       <c r="D10" s="7">
         <v>79.020899999999997</v>
@@ -1323,10 +1801,10 @@
         <v>2030</v>
       </c>
       <c r="B11" s="7">
+        <v>98.033349999999999</v>
+      </c>
+      <c r="C11" s="7">
         <v>96.887039999999999</v>
-      </c>
-      <c r="C11" s="7">
-        <v>98.033349999999999</v>
       </c>
       <c r="D11" s="7">
         <v>116.75440999999999</v>
@@ -1340,10 +1818,10 @@
         <v>2031</v>
       </c>
       <c r="B12" s="7">
+        <v>103.44848</v>
+      </c>
+      <c r="C12" s="7">
         <v>97.341729999999998</v>
-      </c>
-      <c r="C12" s="7">
-        <v>103.44848</v>
       </c>
       <c r="D12" s="7">
         <v>114.33619</v>
@@ -1357,10 +1835,10 @@
         <v>2032</v>
       </c>
       <c r="B13" s="9">
+        <v>99.759039999999999</v>
+      </c>
+      <c r="C13" s="9">
         <v>101.77051</v>
-      </c>
-      <c r="C13" s="9">
-        <v>99.759039999999999</v>
       </c>
       <c r="D13" s="9">
         <v>107.36275000000001</v>
@@ -1370,209 +1848,1659 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330ADFF0-EF19-4CDF-8471-90D5B0CE61D8}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="17.41015625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.9375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="42"/>
-      <c r="B2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="22">
-        <v>-798.7</v>
-      </c>
-      <c r="C3" s="28">
-        <v>273.10000000000002</v>
-      </c>
-      <c r="D3" s="22">
-        <v>-2.9239999999999999</v>
-      </c>
-      <c r="E3" s="28">
-        <v>4.8700000000000002E-3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="22">
-        <v>54.77</v>
-      </c>
-      <c r="C4" s="28">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="D4" s="22">
-        <v>2.9359999999999999</v>
-      </c>
-      <c r="E4" s="28">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1.61E-2</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1.1679999999999999E-2</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0.17332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="22">
-        <v>4.47</v>
-      </c>
-      <c r="C6" s="28">
-        <v>6.3549999999999995E-2</v>
-      </c>
-      <c r="D6" s="22">
-        <v>70.337000000000003</v>
-      </c>
-      <c r="E6" s="45">
-        <v>2E-16</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="22">
-        <v>-1.946E-3</v>
-      </c>
-      <c r="C7" s="28">
-        <v>1.2620000000000001E-3</v>
-      </c>
-      <c r="D7" s="22">
-        <v>-1.542</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0.12837000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="21">
-        <v>9.3670000000000003E-3</v>
-      </c>
-      <c r="C8" s="35">
-        <v>7.2659999999999999E-3</v>
-      </c>
-      <c r="D8" s="21">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="E8" s="35">
-        <v>0.20227000000000001</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="11">
-        <v>162.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0.996</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94D631D-4695-43BC-96BB-E8976C475BE3}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.9375" style="10"/>
+    <col min="2" max="4" width="16.234375" style="55" customWidth="1"/>
+    <col min="5" max="16384" width="8.9375" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="56"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="7">
+        <v>99.822010000000006</v>
+      </c>
+      <c r="C3" s="7">
+        <v>110.25593000000001</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="7">
+        <v>94.228210000000004</v>
+      </c>
+      <c r="C4" s="7">
+        <v>115.97364</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="7">
+        <v>92.999309999999994</v>
+      </c>
+      <c r="C5" s="7">
+        <v>113.2527</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="7">
+        <v>84.394289999999998</v>
+      </c>
+      <c r="C6" s="7">
+        <v>86.614339999999999</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="7">
+        <v>86.929599999999994</v>
+      </c>
+      <c r="C7" s="7">
+        <v>115.76067999999999</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="7">
+        <v>99.003590000000003</v>
+      </c>
+      <c r="C8" s="7">
+        <v>93.214370000000002</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>2028</v>
+      </c>
+      <c r="B9" s="7">
+        <v>93.851879999999994</v>
+      </c>
+      <c r="C9" s="7">
+        <v>96.010769999999994</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="7">
+        <v>95.147530000000003</v>
+      </c>
+      <c r="C10" s="7">
+        <v>80.948269999999994</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="7">
+        <v>96.896439999999998</v>
+      </c>
+      <c r="C11" s="7">
+        <v>115.441</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>2031</v>
+      </c>
+      <c r="B12" s="7">
+        <v>98.673569999999998</v>
+      </c>
+      <c r="C12" s="7">
+        <v>114.06014999999999</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>2032</v>
+      </c>
+      <c r="B13" s="9">
+        <v>93.306120000000007</v>
+      </c>
+      <c r="C13" s="9">
+        <v>104.90495</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A24E05F-3C64-4D29-986A-396ED198DD37}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="3" width="16.234375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.3515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.234375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="20">
+        <v>94.469549999999998</v>
+      </c>
+      <c r="C3" s="20">
+        <v>90.001589999999993</v>
+      </c>
+      <c r="D3" s="20">
+        <v>91.669579999999996</v>
+      </c>
+      <c r="E3" s="20">
+        <v>92.046909999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="20">
+        <v>95.011740000000003</v>
+      </c>
+      <c r="C4" s="20">
+        <v>92.105860000000007</v>
+      </c>
+      <c r="D4" s="20">
+        <v>99.465100000000007</v>
+      </c>
+      <c r="E4" s="20">
+        <v>95.527569999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="22">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="20">
+        <v>95.998609999999999</v>
+      </c>
+      <c r="C5" s="20">
+        <v>92.691310000000001</v>
+      </c>
+      <c r="D5" s="20">
+        <v>100.66799</v>
+      </c>
+      <c r="E5" s="20">
+        <v>96.452640000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="20">
+        <v>96.192210000000003</v>
+      </c>
+      <c r="C6" s="20">
+        <v>92.964259999999996</v>
+      </c>
+      <c r="D6" s="20">
+        <v>101.52064</v>
+      </c>
+      <c r="E6" s="20">
+        <v>96.89237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="22">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="20">
+        <v>96.306709999999995</v>
+      </c>
+      <c r="C7" s="20">
+        <v>93.056579999999997</v>
+      </c>
+      <c r="D7" s="20">
+        <v>101.75151</v>
+      </c>
+      <c r="E7" s="20">
+        <v>97.038269999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="22">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="20">
+        <v>96.340599999999995</v>
+      </c>
+      <c r="C8" s="20">
+        <v>93.094269999999995</v>
+      </c>
+      <c r="D8" s="20">
+        <v>101.85988</v>
+      </c>
+      <c r="E8" s="20">
+        <v>97.098249999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="22">
+        <v>2028</v>
+      </c>
+      <c r="B9" s="20">
+        <v>96.355609999999999</v>
+      </c>
+      <c r="C9" s="20">
+        <v>93.107979999999998</v>
+      </c>
+      <c r="D9" s="20">
+        <v>101.89609</v>
+      </c>
+      <c r="E9" s="20">
+        <v>97.119889999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="22">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="20">
+        <v>96.360799999999998</v>
+      </c>
+      <c r="C10" s="20">
+        <v>93.113309999999998</v>
+      </c>
+      <c r="D10" s="20">
+        <v>101.91092</v>
+      </c>
+      <c r="E10" s="20">
+        <v>97.128339999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="22">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="20">
+        <v>96.362880000000004</v>
+      </c>
+      <c r="C11" s="20">
+        <v>93.115309999999994</v>
+      </c>
+      <c r="D11" s="20">
+        <v>101.91628</v>
+      </c>
+      <c r="E11" s="20">
+        <v>97.131489999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="22">
+        <v>2031</v>
+      </c>
+      <c r="B12" s="20">
+        <v>96.363640000000004</v>
+      </c>
+      <c r="C12" s="20">
+        <v>93.116069999999993</v>
+      </c>
+      <c r="D12" s="20">
+        <v>101.91837</v>
+      </c>
+      <c r="E12" s="20">
+        <v>97.132689999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="23">
+        <v>2032</v>
+      </c>
+      <c r="B13" s="21">
+        <v>96.363939999999999</v>
+      </c>
+      <c r="C13" s="21">
+        <v>93.11636</v>
+      </c>
+      <c r="D13" s="21">
+        <v>101.91915</v>
+      </c>
+      <c r="E13" s="21">
+        <v>97.133150000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5162D82E-EFBD-4AB4-9682-5C3A8A511730}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="8.9375" style="39"/>
+    <col min="2" max="2" width="13.41015625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="39">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="3">
+        <v>98.875919999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="39">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="3">
+        <v>94.189639999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="39">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="3">
+        <v>92.890249999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="39">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3">
+        <v>83.343429999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="39">
+        <v>2026</v>
+      </c>
+      <c r="B6" s="3">
+        <v>86.4756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="39">
+        <v>2027</v>
+      </c>
+      <c r="B7" s="3">
+        <v>99.532740000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="39">
+        <v>2028</v>
+      </c>
+      <c r="B8" s="3">
+        <v>94.701359999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="39">
+        <v>2029</v>
+      </c>
+      <c r="B9" s="3">
+        <v>95.115679999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="39">
+        <v>2030</v>
+      </c>
+      <c r="B10" s="3">
+        <v>95.917910000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="39">
+        <v>2031</v>
+      </c>
+      <c r="B11" s="3">
+        <v>98.966579999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="39">
+        <v>2032</v>
+      </c>
+      <c r="B12" s="3">
+        <v>93.906760000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB30279-E2A3-49EF-A361-6846138A63F4}">
+  <dimension ref="A1:D92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1931</v>
+      </c>
+      <c r="C2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>1932</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>1933</v>
+      </c>
+      <c r="C4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>1934</v>
+      </c>
+      <c r="C5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>1935</v>
+      </c>
+      <c r="C6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>1936</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>1937</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>1938</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>1939</v>
+      </c>
+      <c r="C10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1940</v>
+      </c>
+      <c r="C11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>1941</v>
+      </c>
+      <c r="C12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>1942</v>
+      </c>
+      <c r="C13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>1943</v>
+      </c>
+      <c r="C14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>1944</v>
+      </c>
+      <c r="C15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>1945</v>
+      </c>
+      <c r="C16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>1946</v>
+      </c>
+      <c r="C17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>1947</v>
+      </c>
+      <c r="C18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>1948</v>
+      </c>
+      <c r="C19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>1949</v>
+      </c>
+      <c r="C20">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>1950</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>1951</v>
+      </c>
+      <c r="C22">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>1952</v>
+      </c>
+      <c r="B23">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>1953</v>
+      </c>
+      <c r="B24">
+        <v>101</v>
+      </c>
+      <c r="C24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>1954</v>
+      </c>
+      <c r="B25">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>1955</v>
+      </c>
+      <c r="B26">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>1956</v>
+      </c>
+      <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>1957</v>
+      </c>
+      <c r="B28">
+        <v>103</v>
+      </c>
+      <c r="C28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>1958</v>
+      </c>
+      <c r="B29">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>1959</v>
+      </c>
+      <c r="B30">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>1960</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>1961</v>
+      </c>
+      <c r="B32">
+        <v>99</v>
+      </c>
+      <c r="C32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>1962</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>1963</v>
+      </c>
+      <c r="B34">
+        <v>101</v>
+      </c>
+      <c r="C34">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>1964</v>
+      </c>
+      <c r="B35">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <v>1965</v>
+      </c>
+      <c r="B36">
+        <v>110</v>
+      </c>
+      <c r="C36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>1966</v>
+      </c>
+      <c r="B37">
+        <v>97</v>
+      </c>
+      <c r="C37">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>1967</v>
+      </c>
+      <c r="B38">
+        <v>97</v>
+      </c>
+      <c r="C38">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>1968</v>
+      </c>
+      <c r="B39">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>1969</v>
+      </c>
+      <c r="B40">
+        <v>101</v>
+      </c>
+      <c r="C40">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>1970</v>
+      </c>
+      <c r="B41">
+        <v>107</v>
+      </c>
+      <c r="C41">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>1971</v>
+      </c>
+      <c r="B42">
+        <v>98</v>
+      </c>
+      <c r="C42">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <v>1972</v>
+      </c>
+      <c r="B43">
+        <v>99</v>
+      </c>
+      <c r="C43">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <v>1973</v>
+      </c>
+      <c r="B44">
+        <v>97</v>
+      </c>
+      <c r="C44">
+        <v>119</v>
+      </c>
+      <c r="D44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>1974</v>
+      </c>
+      <c r="B45">
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <v>1975</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>108</v>
+      </c>
+      <c r="D46">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <v>1976</v>
+      </c>
+      <c r="B47">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>102</v>
+      </c>
+      <c r="D47">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <v>1977</v>
+      </c>
+      <c r="B48">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>80</v>
+      </c>
+      <c r="D48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <v>1978</v>
+      </c>
+      <c r="B49">
+        <v>104</v>
+      </c>
+      <c r="C49">
+        <v>108</v>
+      </c>
+      <c r="D49">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <v>1979</v>
+      </c>
+      <c r="B50">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>105</v>
+      </c>
+      <c r="D50">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <v>1980</v>
+      </c>
+      <c r="B51">
+        <v>102</v>
+      </c>
+      <c r="C51">
+        <v>104</v>
+      </c>
+      <c r="D51">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <v>1981</v>
+      </c>
+      <c r="B52">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>92</v>
+      </c>
+      <c r="D52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>1982</v>
+      </c>
+      <c r="B53">
+        <v>93</v>
+      </c>
+      <c r="C53">
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <v>1983</v>
+      </c>
+      <c r="B54">
+        <v>99</v>
+      </c>
+      <c r="C54">
+        <v>101</v>
+      </c>
+      <c r="D54">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <v>1984</v>
+      </c>
+      <c r="B55">
+        <v>109</v>
+      </c>
+      <c r="C55">
+        <v>110</v>
+      </c>
+      <c r="D55">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <v>1985</v>
+      </c>
+      <c r="B56">
+        <v>99</v>
+      </c>
+      <c r="C56">
+        <v>106</v>
+      </c>
+      <c r="D56">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <v>1986</v>
+      </c>
+      <c r="B57">
+        <v>102</v>
+      </c>
+      <c r="C57">
+        <v>121</v>
+      </c>
+      <c r="D57">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <v>1987</v>
+      </c>
+      <c r="B58">
+        <v>95</v>
+      </c>
+      <c r="C58">
+        <v>112</v>
+      </c>
+      <c r="D58">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59">
+        <v>1988</v>
+      </c>
+      <c r="B59">
+        <v>106</v>
+      </c>
+      <c r="C59">
+        <v>108</v>
+      </c>
+      <c r="D59">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <v>1989</v>
+      </c>
+      <c r="B60">
+        <v>93</v>
+      </c>
+      <c r="C60">
+        <v>87</v>
+      </c>
+      <c r="D60">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <v>1990</v>
+      </c>
+      <c r="B61">
+        <v>88</v>
+      </c>
+      <c r="C61">
+        <v>75</v>
+      </c>
+      <c r="D61">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A62">
+        <v>1991</v>
+      </c>
+      <c r="B62">
+        <v>97</v>
+      </c>
+      <c r="C62">
+        <v>94</v>
+      </c>
+      <c r="D62">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <v>1992</v>
+      </c>
+      <c r="B63">
+        <v>94</v>
+      </c>
+      <c r="C63">
+        <v>102</v>
+      </c>
+      <c r="D63">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <v>1993</v>
+      </c>
+      <c r="B64">
+        <v>97</v>
+      </c>
+      <c r="C64">
+        <v>101</v>
+      </c>
+      <c r="D64">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <v>1994</v>
+      </c>
+      <c r="B65">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>82</v>
+      </c>
+      <c r="D65">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <v>1995</v>
+      </c>
+      <c r="B66">
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <v>93</v>
+      </c>
+      <c r="D66">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <v>1996</v>
+      </c>
+      <c r="B67">
+        <v>103</v>
+      </c>
+      <c r="C67">
+        <v>109</v>
+      </c>
+      <c r="D67">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <v>1997</v>
+      </c>
+      <c r="B68">
+        <v>97</v>
+      </c>
+      <c r="C68">
+        <v>81</v>
+      </c>
+      <c r="D68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <v>1998</v>
+      </c>
+      <c r="B69">
+        <v>91</v>
+      </c>
+      <c r="C69">
+        <v>90</v>
+      </c>
+      <c r="D69">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <v>1999</v>
+      </c>
+      <c r="B70">
+        <v>94</v>
+      </c>
+      <c r="C70">
+        <v>94</v>
+      </c>
+      <c r="D70">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <v>2000</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>92</v>
+      </c>
+      <c r="D71">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72">
+        <v>2001</v>
+      </c>
+      <c r="B72">
+        <v>96</v>
+      </c>
+      <c r="C72">
+        <v>89</v>
+      </c>
+      <c r="D72">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <v>2002</v>
+      </c>
+      <c r="B73">
+        <v>91</v>
+      </c>
+      <c r="C73">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A74">
+        <v>2003</v>
+      </c>
+      <c r="B74">
+        <v>98</v>
+      </c>
+      <c r="C74">
+        <v>92</v>
+      </c>
+      <c r="D74">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A75">
+        <v>2004</v>
+      </c>
+      <c r="B75">
+        <v>92</v>
+      </c>
+      <c r="C75">
+        <v>92</v>
+      </c>
+      <c r="D75">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A76">
+        <v>2005</v>
+      </c>
+      <c r="B76">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>95</v>
+      </c>
+      <c r="D76">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A77">
+        <v>2006</v>
+      </c>
+      <c r="B77">
+        <v>98</v>
+      </c>
+      <c r="C77">
+        <v>111</v>
+      </c>
+      <c r="D77">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <v>2007</v>
+      </c>
+      <c r="B78">
+        <v>97</v>
+      </c>
+      <c r="C78">
+        <v>94</v>
+      </c>
+      <c r="D78">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A79">
+        <v>2008</v>
+      </c>
+      <c r="B79">
+        <v>95</v>
+      </c>
+      <c r="C79">
+        <v>89</v>
+      </c>
+      <c r="D79">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A80">
+        <v>2009</v>
+      </c>
+      <c r="B80">
+        <v>95</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A81">
+        <v>2010</v>
+      </c>
+      <c r="B81">
+        <v>95</v>
+      </c>
+      <c r="C81">
+        <v>98</v>
+      </c>
+      <c r="D81">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A82">
+        <v>2011</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>90</v>
+      </c>
+      <c r="D82">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A83">
+        <v>2012</v>
+      </c>
+      <c r="B83">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>93</v>
+      </c>
+      <c r="D83">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A84">
+        <v>2013</v>
+      </c>
+      <c r="B84">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>107</v>
+      </c>
+      <c r="D84">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86">
+        <v>2015</v>
+      </c>
+      <c r="B86">
+        <v>93</v>
+      </c>
+      <c r="C86">
+        <v>101</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A87">
+        <v>2016</v>
+      </c>
+      <c r="B87">
+        <v>95</v>
+      </c>
+      <c r="C87">
+        <v>97</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A88">
+        <v>2017</v>
+      </c>
+      <c r="B88">
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>85</v>
+      </c>
+      <c r="D88">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A89">
+        <v>2018</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>98</v>
+      </c>
+      <c r="D89">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A90">
+        <v>2019</v>
+      </c>
+      <c r="B90">
+        <v>95</v>
+      </c>
+      <c r="C90">
+        <v>86</v>
+      </c>
+      <c r="D90">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>77</v>
+      </c>
+      <c r="D91">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A92">
+        <v>2021</v>
+      </c>
+      <c r="B92">
+        <v>85</v>
+      </c>
+      <c r="C92">
+        <v>87</v>
+      </c>
+      <c r="D92">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A55F2ED-E35F-4C8A-B7B3-0A30702E30FB}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1584,97 +3512,97 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1685,11 +3613,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D84DA7-E644-46F5-831A-2BE8C2E89E53}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A59" sqref="A41:C59"/>
     </sheetView>
   </sheetViews>
@@ -1697,10 +3625,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
@@ -2013,13 +3941,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -2763,961 +4691,773 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A24E05F-3C64-4D29-986A-396ED198DD37}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D641851-AB06-4FC8-98EA-2CAE2C39A959}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="3" width="16.234375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.3515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.234375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.9375" customWidth="1"/>
+    <col min="2" max="2" width="13.17578125" customWidth="1"/>
+    <col min="3" max="3" width="10.234375" customWidth="1"/>
+    <col min="4" max="4" width="8.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="26">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="24">
-        <v>94.469549999999998</v>
-      </c>
-      <c r="C3" s="24">
-        <v>90.001589999999993</v>
-      </c>
-      <c r="D3" s="24">
-        <v>91.669579999999996</v>
-      </c>
-      <c r="E3" s="24">
-        <v>92.046909999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="26">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="24">
-        <v>95.011740000000003</v>
-      </c>
-      <c r="C4" s="24">
-        <v>92.105860000000007</v>
-      </c>
-      <c r="D4" s="24">
-        <v>99.465100000000007</v>
-      </c>
-      <c r="E4" s="24">
-        <v>95.527569999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="26">
-        <v>2024</v>
-      </c>
-      <c r="B5" s="24">
-        <v>95.998609999999999</v>
-      </c>
-      <c r="C5" s="24">
-        <v>92.691310000000001</v>
-      </c>
-      <c r="D5" s="24">
-        <v>100.66799</v>
-      </c>
-      <c r="E5" s="24">
-        <v>96.452640000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="26">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="24">
-        <v>96.192210000000003</v>
-      </c>
-      <c r="C6" s="24">
-        <v>92.964259999999996</v>
-      </c>
-      <c r="D6" s="24">
-        <v>101.52064</v>
-      </c>
-      <c r="E6" s="24">
-        <v>96.89237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="26">
-        <v>2026</v>
-      </c>
-      <c r="B7" s="24">
-        <v>96.306709999999995</v>
-      </c>
-      <c r="C7" s="24">
-        <v>93.056579999999997</v>
-      </c>
-      <c r="D7" s="24">
-        <v>101.75151</v>
-      </c>
-      <c r="E7" s="24">
-        <v>97.038269999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="26">
-        <v>2027</v>
-      </c>
-      <c r="B8" s="24">
-        <v>96.340599999999995</v>
-      </c>
-      <c r="C8" s="24">
-        <v>93.094269999999995</v>
-      </c>
-      <c r="D8" s="24">
-        <v>101.85988</v>
-      </c>
-      <c r="E8" s="24">
-        <v>97.098249999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="26">
-        <v>2028</v>
-      </c>
-      <c r="B9" s="24">
-        <v>96.355609999999999</v>
-      </c>
-      <c r="C9" s="24">
-        <v>93.107979999999998</v>
-      </c>
-      <c r="D9" s="24">
-        <v>101.89609</v>
-      </c>
-      <c r="E9" s="24">
-        <v>97.119889999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="26">
-        <v>2029</v>
-      </c>
-      <c r="B10" s="24">
-        <v>96.360799999999998</v>
-      </c>
-      <c r="C10" s="24">
-        <v>93.113309999999998</v>
-      </c>
-      <c r="D10" s="24">
-        <v>101.91092</v>
-      </c>
-      <c r="E10" s="24">
-        <v>97.128339999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="26">
-        <v>2030</v>
-      </c>
-      <c r="B11" s="24">
-        <v>96.362880000000004</v>
-      </c>
-      <c r="C11" s="24">
-        <v>93.115309999999994</v>
-      </c>
-      <c r="D11" s="24">
-        <v>101.91628</v>
-      </c>
-      <c r="E11" s="24">
-        <v>97.131489999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="26">
-        <v>2031</v>
-      </c>
-      <c r="B12" s="24">
-        <v>96.363640000000004</v>
-      </c>
-      <c r="C12" s="24">
-        <v>93.116069999999993</v>
-      </c>
-      <c r="D12" s="24">
-        <v>101.91837</v>
-      </c>
-      <c r="E12" s="24">
-        <v>97.132689999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="27">
-        <v>2032</v>
-      </c>
-      <c r="B13" s="25">
-        <v>96.363939999999999</v>
-      </c>
-      <c r="C13" s="25">
-        <v>93.11636</v>
-      </c>
-      <c r="D13" s="25">
-        <v>101.91915</v>
-      </c>
-      <c r="E13" s="25">
-        <v>97.133150000000001</v>
+    <row r="1" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.5">
+      <c r="A2" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="49">
+        <v>-125</v>
+      </c>
+      <c r="D3" s="49">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="49">
+        <v>-68</v>
+      </c>
+      <c r="D4" s="49">
+        <v>210.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="52">
+        <v>-13.5</v>
+      </c>
+      <c r="D5" s="52">
+        <v>264.60000000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5162D82E-EFBD-4AB4-9682-5C3A8A511730}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E64342-7ADC-4316-A44B-6C5F3B4C30A0}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.9375" style="46"/>
-    <col min="2" max="2" width="13.41015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.64453125" style="10" customWidth="1"/>
+    <col min="2" max="6" width="8.9375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="46">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="3">
-        <v>98.875919999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="46">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="3">
-        <v>94.189639999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="46">
-        <v>2024</v>
-      </c>
-      <c r="B4" s="3">
-        <v>92.890249999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="46">
-        <v>2025</v>
-      </c>
-      <c r="B5" s="3">
-        <v>83.343429999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="46">
-        <v>2026</v>
-      </c>
-      <c r="B6" s="3">
-        <v>86.4756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="46">
-        <v>2027</v>
-      </c>
-      <c r="B7" s="3">
-        <v>99.532740000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="46">
-        <v>2028</v>
-      </c>
-      <c r="B8" s="3">
-        <v>94.701359999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="46">
-        <v>2029</v>
-      </c>
-      <c r="B9" s="3">
-        <v>95.115679999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="46">
-        <v>2030</v>
-      </c>
-      <c r="B10" s="3">
-        <v>95.917910000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="46">
-        <v>2031</v>
-      </c>
-      <c r="B11" s="3">
-        <v>98.966579999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="46">
-        <v>2032</v>
-      </c>
-      <c r="B12" s="3">
-        <v>93.906760000000006</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="37"/>
+      <c r="B2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="19">
+        <v>219.43599800000001</v>
+      </c>
+      <c r="C3" s="24">
+        <v>172.027998</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1.276</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="19">
+        <v>-7.2740000000000001E-3</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2.9020000000000001E-3</v>
+      </c>
+      <c r="D4" s="34">
+        <v>-2.5070000000000001</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2.0799000000000002E-2</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.0661E-2</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="E5" s="25">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4.2501850000000001</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.17138500000000001</v>
+      </c>
+      <c r="D6" s="34">
+        <v>24.798999999999999</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="19">
+        <v>-6.77E-3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>3.888E-3</v>
+      </c>
+      <c r="D7" s="34">
+        <v>-1.7410000000000001</v>
+      </c>
+      <c r="E7" s="25">
+        <v>8.6699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="18">
+        <v>-2.0041150000000001</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1.6805909999999999</v>
+      </c>
+      <c r="D8" s="35">
+        <v>-1.1930000000000001</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="10">
+        <v>230.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E45861-4409-4685-A150-11F4FCCB4AAA}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A03E6F5-A9E1-46E3-B919-54181ED17976}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.64453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.64453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.17578125" customWidth="1"/>
+    <col min="2" max="2" width="8.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="19">
+        <v>442.3</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2084</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.83301000000000003</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="19">
+        <v>-3.383</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="D4" s="34">
+        <v>-2.0960000000000001</v>
+      </c>
+      <c r="E4" s="25">
+        <v>4.2639999999999997E-2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="19">
+        <v>9.0749999999999997E-3</v>
+      </c>
+      <c r="C5" s="24">
+        <v>4.2560000000000002E-3</v>
+      </c>
+      <c r="D5" s="34">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="E5" s="25">
+        <v>3.9350000000000003E-2</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="19">
+        <v>-0.95430000000000004</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.3952</v>
+      </c>
+      <c r="D6" s="34">
+        <v>-2.415</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2.0549999999999999E-2</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="11" t="s">
+      <c r="B7" s="19">
+        <v>-9.4669999999999997E-3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>3.0669999999999998E-3</v>
+      </c>
+      <c r="D7" s="34">
+        <v>-3.0870000000000002</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37">
-        <v>0.52292090000000002</v>
-      </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.1211</v>
+      </c>
+      <c r="C8" s="24">
+        <v>5.4469999999999998E-2</v>
+      </c>
+      <c r="D8" s="34">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="E8" s="25">
+        <v>3.2050000000000002E-2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="19">
+        <v>-4.0969999999999999E-2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="D9" s="34">
+        <v>-2.0009999999999999</v>
+      </c>
+      <c r="E9" s="25">
+        <v>5.2440000000000001E-2</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="19">
+        <v>4.3620000000000001</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="D10" s="34">
+        <v>12.675000000000001</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2.0799999999999999E-15</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="37">
-        <v>0.74616839999999995</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0.5505949</v>
-      </c>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="38">
-        <v>1.5085489999999999</v>
-      </c>
-      <c r="C6" s="38">
-        <v>2.566999E-2</v>
-      </c>
-      <c r="D6" s="38">
-        <v>1.411092</v>
-      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="19">
+        <v>18.05</v>
+      </c>
+      <c r="C11" s="24">
+        <v>59.67</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.76380999999999999</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="18">
+        <v>-20.239999999999998</v>
+      </c>
+      <c r="C12" s="30">
+        <v>107.9</v>
+      </c>
+      <c r="D12" s="35">
+        <v>-0.188</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10">
+        <v>201.3</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2379EE-9E85-47D9-886E-BE0EE0312498}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330ADFF0-EF19-4CDF-8471-90D5B0CE61D8}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.9375" customWidth="1"/>
-    <col min="4" max="4" width="8.9375" style="1"/>
+    <col min="1" max="1" width="19.87890625" style="10" customWidth="1"/>
+    <col min="2" max="6" width="8.9375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" ht="3.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="37"/>
+      <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11">
-        <v>-1.7654000000000001</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="11">
-        <v>-1.331</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="11">
-        <v>-1.3838999999999999</v>
-      </c>
-      <c r="C7" s="11">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f>B7/C7</f>
-        <v>-20.381443298969071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="11">
-        <v>-1.8411</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="11">
-        <v>-1.2226999999999999</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="11">
-        <v>-0.39240000000000003</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" ref="D10:D19" si="0">B10/C10</f>
-        <v>-4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="11">
-        <v>1.0597000000000001</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.1076</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.8485130111524164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1.0297000000000001</v>
-      </c>
-      <c r="C12" s="11">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>11.278203723986856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.11890000000000001</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9470142977291838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="11">
-        <v>-0.1358</v>
-      </c>
-      <c r="C14" s="11">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7103274559193955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="11">
-        <v>-1.2412000000000001</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>-99.296000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="11">
-        <v>-0.92330000000000001</v>
-      </c>
-      <c r="C16" s="11">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>-135.77941176470588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="11">
-        <v>-0.15290000000000001</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1.23E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>-12.43089430894309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="11">
-        <v>-0.92449999999999999</v>
-      </c>
-      <c r="C18" s="11">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>-133.98550724637681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="11">
-        <v>-1.2410000000000001</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>-99.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="12" t="s">
+      <c r="C2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="11">
-        <v>-0.999</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="11">
-        <v>0.9304</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="11">
-        <v>-0.69059999999999999</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="11">
-        <v>-0.67420000000000002</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="28">
-        <v>4842.5079999999998</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="28">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="C25" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25:D26" si="1">B25/C25</f>
-        <v>67.599999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="28">
-        <v>-6.6352000000000002</v>
-      </c>
-      <c r="C26" s="28">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="1"/>
-        <v>-152.88479262672811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="28">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="28">
-        <v>-0.98309999999999997</v>
-      </c>
-      <c r="C28" s="28">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="D28" s="1">
-        <f>B28/C28</f>
-        <v>-234.07142857142858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="28">
-        <v>-1.14E-2</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="12" t="s">
+      <c r="E2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="19">
+        <v>-798.7</v>
+      </c>
+      <c r="C3" s="24">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="D3" s="19">
+        <v>-2.9239999999999999</v>
+      </c>
+      <c r="E3" s="24">
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="28">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="C30" s="28">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" ref="D30:D32" si="2">B30/C30</f>
-        <v>35.086956521739125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="12" t="s">
+      <c r="B4" s="19">
+        <v>54.77</v>
+      </c>
+      <c r="C4" s="24">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2.9359999999999999</v>
+      </c>
+      <c r="E4" s="24">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.17332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="28">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="C31" s="28">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2857142857142847</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="28">
-        <v>4.2641</v>
-      </c>
-      <c r="C32" s="28">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="2"/>
-        <v>219.79896907216494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="28">
-        <v>-97.943700000000007</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="28">
-        <v>-221.542</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="30">
-        <v>1.699E-3</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="11" t="s">
+      <c r="B6" s="19">
+        <v>4.47</v>
+      </c>
+      <c r="C6" s="24">
+        <v>6.3549999999999995E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>70.337000000000003</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2E-16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="19">
+        <v>-1.946E-3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1.2620000000000001E-3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>-1.542</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.12837000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="18">
+        <v>9.3670000000000003E-3</v>
+      </c>
+      <c r="C8" s="30">
+        <v>7.2659999999999999E-3</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0.20227000000000001</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="11">
-        <v>94.28</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="11">
-        <v>152.91999999999999</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="11">
-        <v>-16.14</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="30">
-        <v>2.566999E-2</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="31">
-        <v>2.275607E-2</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="22"/>
+      <c r="B10" s="10">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.996</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3726,34 +5466,34 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="26.87890625" style="11" customWidth="1"/>
-    <col min="2" max="3" width="8.9375" style="11"/>
-    <col min="4" max="4" width="8.9375" style="22"/>
+    <col min="1" max="1" width="24.1171875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="8.9375" style="10"/>
+    <col min="4" max="4" width="8.9375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>52</v>
       </c>
@@ -3762,16 +5502,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="28">
+      <c r="A5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="24">
         <v>0.32350000000000001</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <f>B5/C5</f>
         <v>4.2177314211212513</v>
       </c>
@@ -3781,319 +5521,319 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="28">
+      <c r="A6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="24">
         <v>-0.42359999999999998</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <f t="shared" ref="D6:D23" si="0">B6/C6</f>
         <v>-5.6706827309236942</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="28">
+      <c r="A7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="24">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>-4.4429530201342287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="28">
+      <c r="A8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="24">
         <v>0.35199999999999998</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>5.3576864535768642</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="28">
+      <c r="A9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="24">
         <v>-0.86499999999999999</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>-11.689189189189189</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="28">
+      <c r="A10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="24">
         <v>0.16439999999999999</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <v>0.1444</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
         <v>1.1385041551246537</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="A11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="24">
         <v>1.2434000000000001</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="24">
         <v>0.17929999999999999</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>6.9347462353597331</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="24">
         <v>-0.13270000000000001</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>-0.78520710059171595</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="A13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="24">
         <v>0.42730000000000001</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <v>0.1603</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <f t="shared" si="0"/>
         <v>2.6656269494697442</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="24">
         <v>0.32650000000000001</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>0.1384</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <f t="shared" si="0"/>
         <v>2.3591040462427748</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="28">
+      <c r="A15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="24">
         <v>1.1910000000000001</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>0.15840000000000001</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <f t="shared" si="0"/>
         <v>7.5189393939393936</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="28">
+      <c r="A16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="24">
         <v>1</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>0.16589999999999999</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
         <v>6.027727546714889</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="28">
+      <c r="A17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="24">
         <v>427.47669999999999</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>17.6126</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <f t="shared" si="0"/>
         <v>24.271072981842543</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="24">
+        <v>-2.7099999999999999E-2</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="28">
-        <v>-2.7099999999999999E-2</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="28">
+      <c r="B19" s="24">
         <v>-2.5999999999999999E-3</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <f t="shared" si="0"/>
         <v>-5.1999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="28">
+      <c r="A20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="24">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="24">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <f t="shared" si="0"/>
         <v>15.310344827586208</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="28">
+      <c r="A21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="24">
         <v>3.7366000000000001</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="24">
         <v>2.87E-2</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <f t="shared" si="0"/>
         <v>130.19512195121951</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="28">
+      <c r="A22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="24">
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <f t="shared" si="0"/>
         <v>-10.833333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="28">
+      <c r="A23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="24">
         <v>-3.9744999999999999</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="24">
         <v>0.186</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <f t="shared" si="0"/>
         <v>-21.368279569892472</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.38169999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>186.58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>231.26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>-73.290000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="26">
         <v>0.52292090000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="27">
         <v>0.44237660000000001</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4102,40 +5842,562 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2379EE-9E85-47D9-886E-BE0EE0312498}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="24.17578125" customWidth="1"/>
+    <col min="4" max="4" width="8.9375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="3.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-1.7654000000000001</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-1.331</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="10">
+        <v>-1.3838999999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/C7</f>
+        <v>-20.381443298969071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-1.8411</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-1.2226999999999999</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="10">
+        <v>-0.39240000000000003</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:D19" si="0">B10/C10</f>
+        <v>-4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1.0597000000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.1076</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8485130111524164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.0297000000000001</v>
+      </c>
+      <c r="C12" s="10">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>11.278203723986856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9470142977291838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="10">
+        <v>-0.1358</v>
+      </c>
+      <c r="C14" s="10">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.7103274559193955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="10">
+        <v>-1.2412000000000001</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>-99.296000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="10">
+        <v>-0.92330000000000001</v>
+      </c>
+      <c r="C16" s="10">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>-135.77941176470588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="10">
+        <v>-0.15290000000000001</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.43089430894309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="10">
+        <v>-0.92449999999999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>-133.98550724637681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="10">
+        <v>-1.2410000000000001</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>-99.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="10">
+        <v>-0.999</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.9304</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="10">
+        <v>-0.69059999999999999</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="10">
+        <v>-0.67420000000000002</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="24">
+        <v>4842.5079999999998</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="24">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="C25" s="24">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:D26" si="1">B25/C25</f>
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="24">
+        <v>-6.6352000000000002</v>
+      </c>
+      <c r="C26" s="24">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>-152.88479262672811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="24">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="24">
+        <v>-0.98309999999999997</v>
+      </c>
+      <c r="C28" s="24">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <f>B28/C28</f>
+        <v>-234.07142857142858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="24">
+        <v>-1.14E-2</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="24">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:D32" si="2">B30/C30</f>
+        <v>35.086956521739125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="24">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C31" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2857142857142847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="24">
+        <v>4.2641</v>
+      </c>
+      <c r="C32" s="24">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>219.79896907216494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="24">
+        <v>-97.943700000000007</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="24">
+        <v>-221.542</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="26">
+        <v>1.699E-3</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="10">
+        <v>94.28</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="10">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="10">
+        <v>-16.14</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="26">
+        <v>2.566999E-2</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="27">
+        <v>2.275607E-2</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB339C4-BC51-47F3-A651-9EDE469156A3}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.46875" style="11" customWidth="1"/>
-    <col min="2" max="3" width="8.9375" style="11"/>
-    <col min="4" max="4" width="8.9375" style="22"/>
+    <col min="1" max="1" width="24" style="10" customWidth="1"/>
+    <col min="2" max="3" width="8.9375" style="10"/>
+    <col min="4" max="4" width="8.9375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="5.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="13"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>52</v>
       </c>
@@ -4144,752 +6406,422 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="28">
+      <c r="A5" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="24">
         <v>0.32329999999999998</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <v>0.1721</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <f>B5/C5</f>
         <v>1.8785589773387563</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="28">
+      <c r="A6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="24">
         <v>-0.37369999999999998</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>1.55E-2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <f t="shared" ref="D6:D18" si="0">B6/C6</f>
         <v>-24.109677419354838</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="28">
+      <c r="A7" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="24">
         <v>-0.99970000000000003</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>-243.82926829268291</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="28">
+      <c r="A8" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="24">
         <v>-0.19800000000000001</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>0.22950000000000001</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>-0.86274509803921573</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="28">
+      <c r="A9" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="24">
         <v>1.0813999999999999</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>0.95760000000000001</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>1.1292815371762739</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="28">
+      <c r="A10" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="24">
         <v>-1.1731</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <v>0.47710000000000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
         <v>-2.4588136658981345</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="A11" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="24">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="24">
         <v>0.96760000000000002</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>2.1806531624638279E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="24">
         <v>-0.72299999999999998</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>0.68079999999999996</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>-1.0619858989424207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="A13" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="24">
         <v>-930.45650000000001</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <v>199.14410000000001</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <f t="shared" si="0"/>
         <v>-4.6722775116109387</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="24">
         <v>63.710999999999999</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>13.5459</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <f t="shared" si="0"/>
         <v>4.7033419706331809</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="28">
+      <c r="A15" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="24">
         <v>1.5E-3</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>1.32E-2</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <f t="shared" si="0"/>
         <v>0.11363636363636363</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="28">
+      <c r="A16" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="24">
         <v>4.5327000000000002</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
         <v>62.262362637362635</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="28">
+      <c r="A17" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="24">
         <v>-1.4E-3</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <f t="shared" si="0"/>
         <v>-0.82352941176470595</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="A18" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="24">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <f t="shared" si="0"/>
         <v>2.3913043478260869</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="26">
         <v>0.38479999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>-60.14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>150.27000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>183.56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="26">
         <v>0.5505949</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="27">
         <v>0.40485120000000002</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A03E6F5-A9E1-46E3-B919-54181ED17976}">
-  <dimension ref="A1:F18"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E45861-4409-4685-A150-11F4FCCB4AAA}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5859375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.64453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.64453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.9375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="14"/>
-      <c r="B2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="22">
-        <v>442.3</v>
-      </c>
-      <c r="C3" s="28">
-        <v>2084</v>
-      </c>
-      <c r="D3" s="39">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0.83301000000000003</v>
-      </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="22">
-        <v>-3.383</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="D4" s="39">
-        <v>-2.0960000000000001</v>
-      </c>
-      <c r="E4" s="29">
-        <v>4.2639999999999997E-2</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="22">
-        <v>9.0749999999999997E-3</v>
-      </c>
-      <c r="C5" s="28">
-        <v>4.2560000000000002E-3</v>
-      </c>
-      <c r="D5" s="39">
-        <v>2.1320000000000001</v>
-      </c>
-      <c r="E5" s="29">
-        <v>3.9350000000000003E-2</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="22">
-        <v>-0.95430000000000004</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0.3952</v>
-      </c>
-      <c r="D6" s="39">
-        <v>-2.415</v>
-      </c>
-      <c r="E6" s="29">
-        <v>2.0549999999999999E-2</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="22">
-        <v>-9.4669999999999997E-3</v>
-      </c>
-      <c r="C7" s="28">
-        <v>3.0669999999999998E-3</v>
-      </c>
-      <c r="D7" s="39">
-        <v>-3.0870000000000002</v>
-      </c>
-      <c r="E7" s="29">
-        <v>3.7100000000000002E-3</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="22">
-        <v>0.1211</v>
-      </c>
-      <c r="C8" s="28">
-        <v>5.4469999999999998E-2</v>
-      </c>
-      <c r="D8" s="39">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="E8" s="29">
-        <v>3.2050000000000002E-2</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="22">
-        <v>-4.0969999999999999E-2</v>
-      </c>
-      <c r="C9" s="28">
-        <v>2.0480000000000002E-2</v>
-      </c>
-      <c r="D9" s="39">
-        <v>-2.0009999999999999</v>
-      </c>
-      <c r="E9" s="29">
-        <v>5.2440000000000001E-2</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="22">
-        <v>4.3620000000000001</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0.34410000000000002</v>
-      </c>
-      <c r="D10" s="39">
-        <v>12.675000000000001</v>
-      </c>
-      <c r="E10" s="29">
-        <v>2.0799999999999999E-15</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="22">
-        <v>18.05</v>
-      </c>
-      <c r="C11" s="28">
-        <v>59.67</v>
-      </c>
-      <c r="D11" s="39">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.76380999999999999</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="21">
-        <v>-20.239999999999998</v>
-      </c>
-      <c r="C12" s="35">
-        <v>107.9</v>
-      </c>
-      <c r="D12" s="40">
-        <v>-0.188</v>
-      </c>
-      <c r="E12" s="41">
-        <v>0.85209999999999997</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="11">
-        <v>201.3</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32">
+        <v>0.52292090000000002</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.74616839999999995</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.5505949</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1.5085489999999999</v>
+      </c>
+      <c r="C6" s="33">
+        <v>2.566999E-2</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1.411092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0.99594870000000002</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.99500520000000003</v>
+      </c>
+      <c r="D12" s="32">
+        <f>B12-C12</f>
+        <v>9.4349999999998602E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="32">
+        <v>0.94357930000000001</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.91211279999999995</v>
+      </c>
+      <c r="D13" s="32">
+        <f t="shared" ref="D13:D14" si="0">B13-C13</f>
+        <v>3.1466500000000064E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.5910706</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.56536719999999996</v>
+      </c>
+      <c r="D14" s="33">
+        <f t="shared" si="0"/>
+        <v>2.5703400000000043E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E64342-7ADC-4316-A44B-6C5F3B4C30A0}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="16.64453125" style="11" customWidth="1"/>
-    <col min="2" max="6" width="8.9375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="42"/>
-      <c r="B2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="22">
-        <v>219.43599800000001</v>
-      </c>
-      <c r="C3" s="28">
-        <v>172.027998</v>
-      </c>
-      <c r="D3" s="39">
-        <v>1.276</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0.2069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22">
-        <v>-7.2740000000000001E-3</v>
-      </c>
-      <c r="C4" s="28">
-        <v>2.9020000000000001E-3</v>
-      </c>
-      <c r="D4" s="39">
-        <v>-2.5070000000000001</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1.49E-2</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="22">
-        <v>2.0799000000000002E-2</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1.0661E-2</v>
-      </c>
-      <c r="D5" s="39">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="E5" s="29">
-        <v>5.57E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="22">
-        <v>4.2501850000000001</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0.17138500000000001</v>
-      </c>
-      <c r="D6" s="39">
-        <v>24.798999999999999</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="22">
-        <v>-6.77E-3</v>
-      </c>
-      <c r="C7" s="28">
-        <v>3.888E-3</v>
-      </c>
-      <c r="D7" s="39">
-        <v>-1.7410000000000001</v>
-      </c>
-      <c r="E7" s="29">
-        <v>8.6699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="21">
-        <v>-2.0041150000000001</v>
-      </c>
-      <c r="C8" s="35">
-        <v>1.6805909999999999</v>
-      </c>
-      <c r="D8" s="40">
-        <v>-1.1930000000000001</v>
-      </c>
-      <c r="E8" s="41">
-        <v>0.23769999999999999</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="11">
-        <v>230.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
